--- a/操作説明書_menu.xlsx
+++ b/操作説明書_menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac95214f6e600c/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{EAEC701E-CA2D-4944-987E-72B45E760C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C037653E-F255-434A-BC52-177C8E3F4BB3}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{EAEC701E-CA2D-4944-987E-72B45E760C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7FF3B5BC-540F-4A5F-9EE5-D0491F9A2607}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{E959BE35-E80C-4B34-944F-47DB8375A36F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -554,6 +554,13 @@
     <t>削除</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　※menuの後ろに's'はつけないこと！</t>
+    <rPh sb="7" eb="8">
+      <t>ウシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -755,6 +762,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,24 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -829,14 +836,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>10825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1133,14 +1140,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1100138</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1155,8 +1162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="3086100"/>
-          <a:ext cx="5681663" cy="2005013"/>
+          <a:off x="257175" y="3900487"/>
+          <a:ext cx="5681663" cy="1862137"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1413,15 +1420,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>214313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1436,7 +1443,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2490787" y="2938463"/>
+          <a:off x="2514599" y="3767138"/>
           <a:ext cx="457200" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1624,14 +1631,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>18779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1190624</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1674,14 +1681,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1204860</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1724,13 +1731,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1792,13 +1799,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>947738</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1863,13 +1870,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1128712</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1931,13 +1938,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>509588</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>966788</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>37829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2002,13 +2009,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1042988</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2070,13 +2077,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>37829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2141,13 +2148,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>862014</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142877</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2209,13 +2216,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>481013</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>194991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>938213</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>80691</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2280,13 +2287,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>976313</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>214313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2348,13 +2355,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>223837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>814388</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2419,13 +2426,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028699</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1076324</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2487,13 +2494,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1123951</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>223837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2558,13 +2565,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1109663</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2626,13 +2633,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>214043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>99743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2697,14 +2704,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>185739</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2747,13 +2754,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>174170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>10995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2797,13 +2804,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>842963</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2865,13 +2872,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>747713</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1204913</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2936,13 +2943,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1033464</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>23810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>90489</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3004,13 +3011,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>204787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>833437</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3075,13 +3082,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3143,13 +3150,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3214,13 +3221,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>195264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3282,13 +3289,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>900112</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3353,13 +3360,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1052513</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3421,13 +3428,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3492,13 +3499,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>766762</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3560,13 +3567,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>966787</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3631,13 +3638,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3699,13 +3706,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1123949</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>15587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>125125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3771,13 +3778,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>919163</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>201325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>957262</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3839,13 +3846,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>220376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>106076</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3910,13 +3917,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>919162</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3978,13 +3985,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>25112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>134650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4049,13 +4056,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4109,14 +4116,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>20147</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>204786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4159,13 +4166,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>14766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4209,13 +4216,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>80964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>766763</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>166689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4277,13 +4284,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>757238</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>976314</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4345,13 +4352,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>166689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4413,13 +4420,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4481,13 +4488,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>223837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4549,13 +4556,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4617,13 +4624,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1195387</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4688,13 +4695,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4759,13 +4766,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4830,13 +4837,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4901,13 +4908,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280988</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>738188</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4972,13 +4979,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>823914</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1281114</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5339,10 +5346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9C476E-A556-4B89-9944-E28DEE884C08}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -5354,116 +5361,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.7">
       <c r="G10" s="3" t="s">
@@ -5517,211 +5524,216 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G21" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="G23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A28" s="17" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="G30" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="G31" t="s">
-        <v>22</v>
+      <c r="G31" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.7">
       <c r="G33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.7">
       <c r="G34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.7">
       <c r="G35" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.7">
       <c r="G36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.7">
       <c r="G37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.7">
+      <c r="G38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A49" s="17" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="G51" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="G52" t="s">
-        <v>32</v>
+      <c r="G52" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G53" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G54" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G56" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.7">
       <c r="G60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="G61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="G62" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="G63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A77" s="17" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A78" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="G79" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="G80" t="s">
-        <v>40</v>
+      <c r="G80" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.7">
       <c r="G81" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.7">
       <c r="G82" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.7">
       <c r="G83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.7">
       <c r="G84" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.7">
       <c r="G85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.7">
+      <c r="G86" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="A28:E29"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A77:E78"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I5"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="A29:E30"/>
+    <mergeCell ref="A50:E51"/>
+    <mergeCell ref="A78:E79"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="48" max="16383" man="1"/>
+    <brk id="49" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
